--- a/data/trans_camb/P6906-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6906-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-21,35; 18,86</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-31,44; 16,28</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 43,78</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-17,04; 34,89</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 22,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,2; 14,42</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-31,39%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66,64%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30,88%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,4%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-43,05; 74,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-75,51; 78,45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; 361,76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-45,71; 274,66</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,0; 91,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,52; 59,56</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 23,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 5,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; 23,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 21,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,89; 24,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 35,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; 19,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,42; 9,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 23,91</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,71%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,49; 153,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,46; 46,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,68; 155,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,76; 234,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,91; 292,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,36; 390,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,16; 119,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,6; 62,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,03; 164,37</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; 32,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,04; 2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,12; 12,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; 40,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,89; 41,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,57; 25,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 25,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,65; 7,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,64; 14,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,2%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-53,52; 455,61</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-75,07; 253,63</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-61,64; 1103,94</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,87; 573,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,68; 297,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 132,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,15; 176,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 32,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 47,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,62; 34,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,27; 45,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,32; 55,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 36,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 32,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,02; 42,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 27,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>363,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,87%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,66; 303,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,33; 360,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,1; 276,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,11; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,93; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,45; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,56; 330,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,51; 393,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,01; 247,17</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,04</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,55</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,39; 12,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 56,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; 15,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,65; 42,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; 69,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,98; 12,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,83; 21,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 47,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,63; 10,3</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>180,91%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,64%</t>
         </is>
       </c>
     </row>
@@ -1665,37 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,88; 536,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,66; 914,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,7; 323,16</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,19</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,48; 11,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 5,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,95; 12,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 47,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,01; 81,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,97; 31,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,42; 14,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,48; 20,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,03; 14,41</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>319,79%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,65%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-71,48; 110,19</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 80,68</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-75,23; 120,59</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,91; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,67; 143,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,72; 169,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,38; 138,24</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,6</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 23,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,73; 14,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 15,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,25; 21,81</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,09; 17,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 23,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 17,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 11,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 16,43</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,47%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,53; 216,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,79; 120,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,89; 132,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,38; 133,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,54; 111,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; 151,81</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,79; 106,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,23; 74,61</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,58; 112,73</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,16</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,8</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,22</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,79; 3,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,28; 19,85</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,28; -6,28</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,75; 23,36</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,03; 17,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,73; -0,83</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,21; 4,8</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 13,15</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; -6,67</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,12%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,57%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,23%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,87%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,12%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,37%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,85%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,83; 23,24</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,51; 90,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,61; -19,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,73; 121,23</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,68; 96,26</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,5; -1,33</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,49; 25,03</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,8; 56,79</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,18; -28,76</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 9,86</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 7,65</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,28; 1,67</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 15,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 19,01</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 11,96</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 9,98</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 10,14</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 5,06</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 48,34</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,97; 37,24</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,29; 8,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 89,47</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,75; 106,57</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 68,67</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 50,41</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 49,18</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,28; 25,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6906-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-10,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-2,82</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 33,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 16,28</t>
+          <t>-30,47; 17,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; 35,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 34,89</t>
+          <t>-16,62; 36,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 28,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 14,42</t>
+          <t>-21,56; 14,84</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,39%</t>
+          <t>-30,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,4%</t>
+          <t>-8,68%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,85; 139,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 78,45</t>
+          <t>-74,44; 86,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,15; 227,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 274,66</t>
+          <t>-45,19; 284,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,42; 115,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 59,56</t>
+          <t>-54,13; 60,5</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>10,15</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 23,69</t>
+          <t>-13,27; 24,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 35,65</t>
+          <t>-2,7; 35,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 23,91</t>
+          <t>-4,14; 24,99</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>47,24%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 155,08</t>
+          <t>-49,6; 151,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 390,62</t>
+          <t>-16,93; 389,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 164,37</t>
+          <t>-17,42; 165,29</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,29</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 12,19</t>
+          <t>-21,26; 12,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 25,45</t>
+          <t>-10,79; 25,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 14,39</t>
+          <t>-9,05; 14,17</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,79%</t>
+          <t>-14,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>73,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,07; 253,63</t>
+          <t>-75,63; 248,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 573,35</t>
+          <t>-40,93; 572,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 176,19</t>
+          <t>-38,72; 174,33</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,65</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,53</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,41</t>
+          <t>26,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,69</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,28</t>
+          <t>15,72</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 32,73</t>
+          <t>-6,85; 30,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 34,27</t>
+          <t>-9,97; 34,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,27; 45,26</t>
+          <t>2,05; 46,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 36,2</t>
+          <t>-19,79; 30,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 32,52</t>
+          <t>1,33; 30,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 27,75</t>
+          <t>-11,08; 22,1</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53,0%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>304,81%</t>
+          <t>278,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>211,25%</t>
+          <t>120,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>125,87%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>40,73%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,66; 303,52</t>
+          <t>-26,63; 241,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 276,99</t>
+          <t>-43,03; 271,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,11; —</t>
+          <t>-16,21; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,45; —</t>
+          <t>-65,21; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,56; 330,81</t>
+          <t>0,83; 286,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 247,17</t>
+          <t>-49,42; 176,04</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,56</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 15,57</t>
+          <t>-20,35; 15,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 12,38</t>
+          <t>-51,88; 12,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 10,3</t>
+          <t>-17,56; 10,34</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-8,91%</t>
+          <t>-9,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-41,95%</t>
+          <t>-40,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>-20,53%</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,7; 323,16</t>
+          <t>-83,5; 318,0</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 12,16</t>
+          <t>-22,69; 12,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 31,81</t>
+          <t>-13,74; 31,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 14,41</t>
+          <t>-13,11; 14,17</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>-23,96%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-75,23; 120,59</t>
+          <t>-75,07; 119,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-48,91; —</t>
+          <t>-48,69; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 138,24</t>
+          <t>-46,12; 134,18</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,33</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 15,79</t>
+          <t>-10,55; 15,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 23,24</t>
+          <t>-9,82; 23,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 16,43</t>
+          <t>-4,57; 16,18</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>26,13%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,89; 132,15</t>
+          <t>-46,9; 132,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 151,81</t>
+          <t>-27,29; 153,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 112,73</t>
+          <t>-18,15; 107,65</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-18,16</t>
+          <t>-18,09</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-14,8</t>
+          <t>-14,66</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-16,22</t>
+          <t>-16,15</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-29,28; -6,28</t>
+          <t>-29,29; -6,2</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -0,83</t>
+          <t>-30,34; -0,34</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-24,04; -6,67</t>
+          <t>-23,92; -6,6</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-67,0%</t>
+          <t>-66,72%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-51,87%</t>
+          <t>-51,38%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-58,85%</t>
+          <t>-58,62%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-88,61; -19,58</t>
+          <t>-88,64; -20,08</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-81,5; -1,33</t>
+          <t>-80,94; -0,88</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-77,18; -28,76</t>
+          <t>-77,0; -28,58</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,22 +2385,22 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
           <t>4,95</t>
         </is>
       </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 1,67</t>
+          <t>-9,83; 2,52</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,96</t>
+          <t>-5,04; 11,06</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 5,06</t>
+          <t>-5,23; 4,54</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>-15,97%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>-0,63%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 8,96</t>
+          <t>-38,71; 12,57</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 68,67</t>
+          <t>-19,73; 62,58</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 25,9</t>
+          <t>-21,23; 22,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6906-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 33,6</t>
+          <t>-11,56; 32,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 18,86</t>
+          <t>-19,91; 20,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 17,09</t>
+          <t>-33,63; 12,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 35,2</t>
+          <t>-12,82; 40,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 43,78</t>
+          <t>-5,26; 40,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 36,2</t>
+          <t>-17,13; 33,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 28,0</t>
+          <t>-5,15; 28,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 22,19</t>
+          <t>-7,74; 22,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 14,84</t>
+          <t>-20,46; 15,79</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 139,25</t>
+          <t>-24,72; 135,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 74,93</t>
+          <t>-43,97; 87,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,44; 86,56</t>
+          <t>-79,09; 54,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 227,12</t>
+          <t>-35,09; 274,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 361,76</t>
+          <t>-13,69; 296,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 284,78</t>
+          <t>-45,39; 237,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 115,76</t>
+          <t>-13,83; 116,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 91,72</t>
+          <t>-19,4; 95,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 60,5</t>
+          <t>-52,27; 66,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 23,23</t>
+          <t>-10,35; 23,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 5,8</t>
+          <t>-21,64; 5,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 24,41</t>
+          <t>-13,19; 26,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 21,58</t>
+          <t>-16,21; 23,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 24,92</t>
+          <t>-9,72; 26,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 35,32</t>
+          <t>-1,48; 35,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 19,11</t>
+          <t>-6,87; 18,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 9,37</t>
+          <t>-12,97; 9,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 24,99</t>
+          <t>-2,75; 24,09</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 153,39</t>
+          <t>-35,92; 166,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,46; 46,43</t>
+          <t>-70,8; 39,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 151,88</t>
+          <t>-52,59; 179,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,76; 234,94</t>
+          <t>-69,32; 260,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,91; 292,82</t>
+          <t>-36,41; 353,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 389,73</t>
+          <t>-9,65; 493,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 119,52</t>
+          <t>-27,71; 117,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 62,13</t>
+          <t>-47,45; 66,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 165,29</t>
+          <t>-11,95; 168,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 32,22</t>
+          <t>-13,56; 30,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 2,79</t>
+          <t>-31,45; 1,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 12,1</t>
+          <t>-21,02; 13,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 40,67</t>
+          <t>-10,62; 40,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 41,29</t>
+          <t>-18,69; 35,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 25,24</t>
+          <t>-13,64; 25,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 25,63</t>
+          <t>-8,0; 26,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 7,16</t>
+          <t>-21,24; 8,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 14,17</t>
+          <t>-9,55; 14,76</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 455,61</t>
+          <t>-56,05; 393,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,63; 248,65</t>
+          <t>-74,14; 273,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,64; 1103,94</t>
+          <t>-55,89; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 572,89</t>
+          <t>-47,73; 545,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 297,42</t>
+          <t>-38,58; 309,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 132,44</t>
+          <t>-100,0; 309,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 174,33</t>
+          <t>-40,83; 175,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 30,73</t>
+          <t>-6,92; 28,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 47,28</t>
+          <t>4,36; 47,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 34,41</t>
+          <t>-9,53; 33,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 46,51</t>
+          <t>2,94; 47,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,32; 55,0</t>
+          <t>10,88; 54,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 30,17</t>
+          <t>-15,21; 32,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 30,26</t>
+          <t>2,1; 29,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,02; 42,41</t>
+          <t>11,94; 42,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 22,1</t>
+          <t>-13,3; 22,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 241,77</t>
+          <t>-26,14; 235,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,33; 360,77</t>
+          <t>11,0; 413,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,03; 271,84</t>
+          <t>-41,06; 293,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,21; —</t>
+          <t>-14,48; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,93; —</t>
+          <t>24,12; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,21; —</t>
+          <t>-56,13; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,83; 286,32</t>
+          <t>2,8; 259,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,51; 393,36</t>
+          <t>48,31; 398,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 176,04</t>
+          <t>-52,92; 178,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 12,63</t>
+          <t>-21,49; 13,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 56,48</t>
+          <t>-3,83; 54,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 15,36</t>
+          <t>-20,06; 15,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 42,43</t>
+          <t>-34,61; 44,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 69,6</t>
+          <t>-23,91; 69,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 12,62</t>
+          <t>-47,45; 13,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 21,29</t>
+          <t>-15,43; 18,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 47,74</t>
+          <t>-2,61; 49,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 10,34</t>
+          <t>-17,65; 10,99</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 536,96</t>
+          <t>-82,03; 496,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 914,88</t>
+          <t>-36,25; 1278,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,5; 318,0</t>
+          <t>-79,33; 388,58</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 11,53</t>
+          <t>-23,66; 10,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 5,84</t>
+          <t>-28,2; 5,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 12,32</t>
+          <t>-23,47; 12,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 47,41</t>
+          <t>-9,79; 48,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,01; 81,1</t>
+          <t>1,74; 80,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 31,89</t>
+          <t>-17,92; 28,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 14,89</t>
+          <t>-14,81; 15,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 20,96</t>
+          <t>-15,69; 19,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 14,17</t>
+          <t>-13,91; 14,48</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 110,19</t>
+          <t>-73,99; 111,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 80,68</t>
+          <t>-100,0; 89,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-75,07; 119,69</t>
+          <t>-75,51; 123,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1891,34 +1891,34 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,21; —</t>
+          <t>-30,6; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-48,69; —</t>
+          <t>-60,16; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-51,67; 143,67</t>
+          <t>-54,78; 133,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 169,75</t>
+          <t>-66,73; 156,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 134,18</t>
+          <t>-48,52; 124,62</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 23,83</t>
+          <t>-7,86; 21,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 14,36</t>
+          <t>-11,75; 14,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 15,83</t>
+          <t>-11,52; 13,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 21,81</t>
+          <t>-17,07; 21,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 17,51</t>
+          <t>-18,67; 16,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 23,08</t>
+          <t>-9,88; 23,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 17,22</t>
+          <t>-5,22; 17,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 11,69</t>
+          <t>-8,74; 10,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 16,18</t>
+          <t>-5,34; 13,73</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 216,35</t>
+          <t>-36,82; 180,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 120,57</t>
+          <t>-51,61; 127,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 132,57</t>
+          <t>-50,11; 118,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-50,38; 133,6</t>
+          <t>-46,76; 119,69</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 111,52</t>
+          <t>-53,59; 97,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 153,42</t>
+          <t>-26,09; 168,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 106,55</t>
+          <t>-20,33; 112,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-35,23; 74,61</t>
+          <t>-35,44; 68,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 107,65</t>
+          <t>-20,5; 87,01</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 3,67</t>
+          <t>-25,43; 2,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 19,85</t>
+          <t>-14,33; 20,87</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -6,2</t>
+          <t>-28,96; -6,05</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 23,36</t>
+          <t>-21,98; 23,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 17,58</t>
+          <t>-27,65; 20,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -0,34</t>
+          <t>-30,18; 1,36</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 4,8</t>
+          <t>-18,63; 4,86</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 13,15</t>
+          <t>-14,87; 13,99</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -6,6</t>
+          <t>-25,03; -6,3</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-76,83; 23,24</t>
+          <t>-81,03; 15,67</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-47,51; 90,0</t>
+          <t>-46,82; 98,89</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-88,64; -20,08</t>
+          <t>-86,92; -8,94</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-62,73; 121,23</t>
+          <t>-65,13; 118,36</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-78,68; 96,26</t>
+          <t>-83,15; 100,39</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-80,94; -0,88</t>
+          <t>-79,34; 8,78</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 25,03</t>
+          <t>-59,7; 23,39</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 56,79</t>
+          <t>-47,6; 60,55</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-77,0; -28,58</t>
+          <t>-77,72; -25,93</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 9,86</t>
+          <t>-3,14; 9,55</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,65</t>
+          <t>-5,03; 7,37</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 2,52</t>
+          <t>-9,4; 3,0</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 15,94</t>
+          <t>-0,73; 16,64</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,18; 19,01</t>
+          <t>2,68; 19,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 11,06</t>
+          <t>-5,58; 10,13</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,98</t>
+          <t>0,21; 10,55</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,24; 10,14</t>
+          <t>0,32; 10,4</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 4,54</t>
+          <t>-4,83; 4,9</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 48,34</t>
+          <t>-12,59; 45,57</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 37,24</t>
+          <t>-20,12; 36,23</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 12,57</t>
+          <t>-37,97; 14,6</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 89,47</t>
+          <t>-2,97; 94,27</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,75; 106,57</t>
+          <t>10,84; 111,27</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 62,58</t>
+          <t>-21,05; 57,72</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>0,11; 50,41</t>
+          <t>0,85; 51,52</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>1,01; 49,18</t>
+          <t>1,12; 50,55</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 22,08</t>
+          <t>-20,34; 24,0</t>
         </is>
       </c>
     </row>
